--- a/Civilworks cost/Expenditure_2017_18/Chcek/RPA_Statement (Contractor) (2017-18)(2).xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Chcek/RPA_Statement (Contractor) (2017-18)(2).xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Expenditure_2017_18\Chcek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FY 2017-2018" sheetId="3" r:id="rId1"/>
+    <sheet name="Civil_Works_2017_18" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'FY 2017-2018'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="144">
   <si>
     <t>PROJECT MANAGEMENT OFFICE 
 HAOR FLOOD MANAGEMENT AND LIVELIHOOD
@@ -376,16 +383,91 @@
   </si>
   <si>
     <t>BWDB/Kisore/HFMLIP/    15 (2nd R/A)</t>
+  </si>
+  <si>
+    <t>Irrigation Inlet</t>
+  </si>
+  <si>
+    <t>Regulaor Reinstallation Rehab Haor</t>
+  </si>
+  <si>
+    <t>Reg/CW/Bridge/Box outlet</t>
+  </si>
+  <si>
+    <t>Re-excavation of Khal New Haor</t>
+  </si>
+  <si>
+    <t>Re-excavation of Khal Rehab Haor</t>
+  </si>
+  <si>
+    <t>Full Embnk Reahab (Rehab Haor)</t>
+  </si>
+  <si>
+    <t>Submersible Embnk Reahab (Rehab Haor)</t>
+  </si>
+  <si>
+    <t>Submersible Embnk construction</t>
+  </si>
+  <si>
+    <t>Regulaor Reinstallation New Haor</t>
+  </si>
+  <si>
+    <t>Const:WMG Office</t>
+  </si>
+  <si>
+    <t>Regulator Gate Repair</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Budget_Gob</t>
+  </si>
+  <si>
+    <t>Budget_RPA</t>
+  </si>
+  <si>
+    <t>Budget_DPA</t>
+  </si>
+  <si>
+    <t>Budget_Total</t>
+  </si>
+  <si>
+    <t>Exp_Gob</t>
+  </si>
+  <si>
+    <t>Exp_RPA</t>
+  </si>
+  <si>
+    <t>Exp_DPA</t>
+  </si>
+  <si>
+    <t>Exp_Total</t>
+  </si>
+  <si>
+    <t>Gob</t>
+  </si>
+  <si>
+    <t>Gob (Lakh)</t>
+  </si>
+  <si>
+    <t>RPA( Lakh)</t>
+  </si>
+  <si>
+    <t>Total (Lakh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +536,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +838,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,6 +871,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -795,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,9 +954,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,6 +989,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1036,15 +1165,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
@@ -1065,7 +1194,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="50.25" customHeight="1">
+    <row r="1" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="71" t="s">
         <v>0</v>
@@ -1083,7 +1212,7 @@
       <c r="M1" s="71"/>
       <c r="N1" s="71"/>
     </row>
-    <row r="2" spans="1:14" ht="9.75" customHeight="1">
+    <row r="2" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -1099,7 +1228,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="72" t="s">
         <v>27</v>
@@ -1117,7 +1246,7 @@
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
     </row>
-    <row r="4" spans="1:14" ht="9.75" customHeight="1">
+    <row r="4" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1133,7 +1262,7 @@
       <c r="M4" s="64"/>
       <c r="N4" s="64"/>
     </row>
-    <row r="5" spans="1:14" ht="34.5" customHeight="1">
+    <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="15.2" customHeight="1">
+    <row r="6" spans="1:14" s="13" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -1225,7 +1354,7 @@
         <v>43072</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="15.2" customHeight="1">
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -1273,7 +1402,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="24.95" customHeight="1">
+    <row r="8" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -1321,7 +1450,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1">
+    <row r="9" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -1369,7 +1498,7 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="24.95" customHeight="1">
+    <row r="10" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -1417,7 +1546,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1">
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -1465,7 +1594,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="24.95" customHeight="1">
+    <row r="12" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -1513,7 +1642,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="24.95" customHeight="1">
+    <row r="13" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -1561,7 +1690,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="24.95" customHeight="1">
+    <row r="14" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -1609,7 +1738,7 @@
         <v>43149</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="24.95" customHeight="1">
+    <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -1657,7 +1786,7 @@
         <v>43149</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="24.95" customHeight="1">
+    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -1705,7 +1834,7 @@
         <v>43149</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="24.95" customHeight="1">
+    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -1753,7 +1882,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="24.95" customHeight="1">
+    <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -1801,7 +1930,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="24.95" customHeight="1">
+    <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -1849,7 +1978,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="24.95" customHeight="1">
+    <row r="20" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -1897,7 +2026,7 @@
         <v>43156</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="24.95" customHeight="1">
+    <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -1945,7 +2074,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="24.95" customHeight="1">
+    <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -1993,7 +2122,7 @@
         <v>43166</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="24.95" customHeight="1">
+    <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -2041,7 +2170,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="24.95" customHeight="1">
+    <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -2089,7 +2218,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="27.75" customHeight="1">
+    <row r="25" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -2137,7 +2266,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24.95" customHeight="1">
+    <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -2185,7 +2314,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="24.95" customHeight="1">
+    <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -2233,7 +2362,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="24.95" customHeight="1">
+    <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -2281,7 +2410,7 @@
         <v>43181</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="24.95" customHeight="1">
+    <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -2329,7 +2458,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="24.95" customHeight="1">
+    <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -2377,7 +2506,7 @@
         <v>43188</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="24.95" customHeight="1">
+    <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>26</v>
       </c>
@@ -2425,7 +2554,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="24.95" customHeight="1">
+    <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>27</v>
       </c>
@@ -2473,7 +2602,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="24.95" customHeight="1">
+    <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>28</v>
       </c>
@@ -2521,7 +2650,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="24.95" customHeight="1">
+    <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>29</v>
       </c>
@@ -2569,7 +2698,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="24.95" customHeight="1">
+    <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>30</v>
       </c>
@@ -2617,7 +2746,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="24.95" customHeight="1">
+    <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>31</v>
       </c>
@@ -2665,7 +2794,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="24.95" customHeight="1">
+    <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>32</v>
       </c>
@@ -2713,7 +2842,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="24.95" customHeight="1">
+    <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>33</v>
       </c>
@@ -2761,7 +2890,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="25.5">
+    <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>34</v>
       </c>
@@ -2809,7 +2938,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="25.5">
+    <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>35</v>
       </c>
@@ -2857,7 +2986,7 @@
         <v>43212</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="25.5">
+    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>36</v>
       </c>
@@ -2905,7 +3034,7 @@
         <v>43212</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="38.25">
+    <row r="42" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>37</v>
       </c>
@@ -2953,7 +3082,7 @@
         <v>43226</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="25.5">
+    <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>38</v>
       </c>
@@ -3001,7 +3130,7 @@
         <v>43229</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="25.5">
+    <row r="44" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>39</v>
       </c>
@@ -3049,7 +3178,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="25.5">
+    <row r="45" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>40</v>
       </c>
@@ -3097,7 +3226,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="25.5">
+    <row r="46" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>41</v>
       </c>
@@ -3145,7 +3274,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="25.5">
+    <row r="47" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>42</v>
       </c>
@@ -3193,7 +3322,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="25.5">
+    <row r="48" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>43</v>
       </c>
@@ -3241,7 +3370,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="25.5">
+    <row r="49" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>44</v>
       </c>
@@ -3289,7 +3418,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="25.5">
+    <row r="50" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>45</v>
       </c>
@@ -3337,7 +3466,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="25.5">
+    <row r="51" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>46</v>
       </c>
@@ -3385,7 +3514,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="25.5">
+    <row r="52" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>47</v>
       </c>
@@ -3433,7 +3562,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="25.5">
+    <row r="53" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>48</v>
       </c>
@@ -3481,7 +3610,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="25.5">
+    <row r="54" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>49</v>
       </c>
@@ -3529,7 +3658,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="25.5">
+    <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>50</v>
       </c>
@@ -3577,7 +3706,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="25.5">
+    <row r="56" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>51</v>
       </c>
@@ -3625,7 +3754,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="25.5">
+    <row r="57" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>52</v>
       </c>
@@ -3673,7 +3802,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="25.5">
+    <row r="58" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>53</v>
       </c>
@@ -3721,7 +3850,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="25.5">
+    <row r="59" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>54</v>
       </c>
@@ -3769,7 +3898,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="25.5">
+    <row r="60" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>55</v>
       </c>
@@ -3817,7 +3946,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="25.5">
+    <row r="61" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>56</v>
       </c>
@@ -3865,7 +3994,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="25.5">
+    <row r="62" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>57</v>
       </c>
@@ -3913,7 +4042,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="25.5">
+    <row r="63" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>58</v>
       </c>
@@ -3961,7 +4090,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="25.5">
+    <row r="64" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>59</v>
       </c>
@@ -4009,7 +4138,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="25.5">
+    <row r="65" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>60</v>
       </c>
@@ -4057,7 +4186,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="25.5">
+    <row r="66" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>61</v>
       </c>
@@ -4105,7 +4234,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="25.5">
+    <row r="67" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>62</v>
       </c>
@@ -4153,7 +4282,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="25.5">
+    <row r="68" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>63</v>
       </c>
@@ -4201,7 +4330,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="25.5">
+    <row r="69" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>64</v>
       </c>
@@ -4249,7 +4378,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="25.5">
+    <row r="70" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>65</v>
       </c>
@@ -4297,7 +4426,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="25.5">
+    <row r="71" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>66</v>
       </c>
@@ -4345,7 +4474,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="25.5">
+    <row r="72" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>67</v>
       </c>
@@ -4393,7 +4522,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="25.5">
+    <row r="73" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>68</v>
       </c>
@@ -4441,7 +4570,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="25.5">
+    <row r="74" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>69</v>
       </c>
@@ -4489,7 +4618,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="25.5">
+    <row r="75" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>70</v>
       </c>
@@ -4537,7 +4666,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="25.5">
+    <row r="76" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>71</v>
       </c>
@@ -4585,7 +4714,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>72</v>
       </c>
@@ -4633,7 +4762,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="25.5">
+    <row r="78" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>73</v>
       </c>
@@ -4681,7 +4810,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17.25" customHeight="1">
+    <row r="79" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -4709,7 +4838,7 @@
       <c r="M79" s="53"/>
       <c r="N79" s="54"/>
     </row>
-    <row r="80" spans="1:14" s="5" customFormat="1">
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20" t="s">
@@ -4751,7 +4880,7 @@
       <c r="M80" s="19"/>
       <c r="N80" s="19"/>
     </row>
-    <row r="81" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1">
+    <row r="81" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="18"/>
@@ -4767,7 +4896,7 @@
       <c r="M81" s="18"/>
       <c r="N81" s="19"/>
     </row>
-    <row r="82" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1">
+    <row r="82" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="22" t="s">
         <v>17</v>
@@ -4785,7 +4914,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="1:14" s="5" customFormat="1">
+    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="25" t="s">
         <v>12</v>
@@ -4806,7 +4935,7 @@
       <c r="M83" s="19"/>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="25" t="s">
         <v>13</v>
@@ -4827,7 +4956,7 @@
       <c r="M84" s="19"/>
       <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="1:14" s="5" customFormat="1" ht="13.5" customHeight="1">
+    <row r="85" spans="1:14" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="22" t="s">
         <v>11</v>
@@ -4851,7 +4980,7 @@
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1">
+    <row r="86" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="22" t="s">
         <v>22</v>
@@ -4872,7 +5001,7 @@
       <c r="M86" s="19"/>
       <c r="N86" s="19"/>
     </row>
-    <row r="87" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="87" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="22" t="s">
         <v>19</v>
@@ -4895,7 +5024,7 @@
       <c r="M87" s="19"/>
       <c r="N87" s="19"/>
     </row>
-    <row r="88" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1">
+    <row r="88" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="25" t="s">
         <v>7</v>
@@ -4909,146 +5038,146 @@
       <c r="J88" s="11"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:14" s="5" customFormat="1">
+    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="8"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:14" s="5" customFormat="1">
+    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:14" s="5" customFormat="1">
+    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:14" s="5" customFormat="1">
+    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:14" s="5" customFormat="1">
+    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:14" s="5" customFormat="1">
+    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:14" s="5" customFormat="1">
+    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:14" s="5" customFormat="1">
+    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1">
+    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1">
+    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1">
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1">
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1">
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="H102" s="2"/>
       <c r="L102" s="14"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="H103" s="2"/>
       <c r="L103" s="14"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="H104" s="2"/>
       <c r="L104" s="14"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="H105" s="2"/>
       <c r="L105" s="14"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="H106" s="2"/>
       <c r="L106" s="14"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="H107" s="2"/>
       <c r="L107" s="14"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="L108" s="14"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="L109" s="14"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="L110" s="14"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="L111" s="14"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="L112" s="14"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="L113" s="14"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="L114" s="14"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="L115" s="14"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="L116" s="14"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="L117" s="14"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="L118" s="14"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="L119" s="14"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="L120" s="14"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="L121" s="14"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="L122" s="14"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="L123" s="14"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="L124" s="14"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L125" s="14"/>
     </row>
   </sheetData>
@@ -5060,4 +5189,637 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="11" width="14" customWidth="1"/>
+    <col min="12" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
+        <v>3258114</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="77">
+        <v>40000000</v>
+      </c>
+      <c r="D2" s="77">
+        <v>300000000</v>
+      </c>
+      <c r="E2" s="77">
+        <v>0</v>
+      </c>
+      <c r="F2" s="77">
+        <v>340000000</v>
+      </c>
+      <c r="G2" s="77">
+        <v>267769</v>
+      </c>
+      <c r="H2" s="77">
+        <v>2166496</v>
+      </c>
+      <c r="I2" s="77">
+        <v>0</v>
+      </c>
+      <c r="J2" s="78">
+        <v>2434265</v>
+      </c>
+      <c r="K2" s="78">
+        <f>ROUND(G2/10^5,2)</f>
+        <v>2.68</v>
+      </c>
+      <c r="L2" s="79">
+        <f>ROUND(J2/10^5,2)</f>
+        <v>24.34</v>
+      </c>
+      <c r="M2" s="79">
+        <f>ROUND(J2/10^5,2)</f>
+        <v>24.34</v>
+      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79">
+        <v>2.68</v>
+      </c>
+      <c r="P2" s="79">
+        <v>21.67</v>
+      </c>
+      <c r="Q2" s="76"/>
+      <c r="R2">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>4111306</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="77">
+        <v>140000</v>
+      </c>
+      <c r="D3" s="77">
+        <v>860000</v>
+      </c>
+      <c r="E3" s="77">
+        <v>0</v>
+      </c>
+      <c r="F3" s="77">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="77">
+        <v>98604.24</v>
+      </c>
+      <c r="H3" s="77">
+        <v>605711.72</v>
+      </c>
+      <c r="I3" s="77">
+        <v>0</v>
+      </c>
+      <c r="J3" s="78">
+        <v>704315.96</v>
+      </c>
+      <c r="K3" s="78">
+        <f t="shared" ref="K3:K12" si="0">ROUND(G3/10^5,2)</f>
+        <v>0.99</v>
+      </c>
+      <c r="L3" s="79">
+        <f t="shared" ref="L3:L12" si="1">ROUND(J3/10^5,2)</f>
+        <v>7.04</v>
+      </c>
+      <c r="M3" s="79">
+        <f t="shared" ref="M3:M12" si="2">ROUND(J3/10^5,2)</f>
+        <v>7.04</v>
+      </c>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="77"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77">
+        <v>4111307</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="77">
+        <v>0</v>
+      </c>
+      <c r="D4" s="77">
+        <v>0</v>
+      </c>
+      <c r="E4" s="77">
+        <v>0</v>
+      </c>
+      <c r="F4" s="77">
+        <v>0</v>
+      </c>
+      <c r="G4" s="77">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77">
+        <v>0</v>
+      </c>
+      <c r="I4" s="77">
+        <v>0</v>
+      </c>
+      <c r="J4" s="78">
+        <v>0</v>
+      </c>
+      <c r="K4" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="77"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77">
+        <v>4111307</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="77">
+        <v>39480000</v>
+      </c>
+      <c r="D5" s="77">
+        <v>242520000</v>
+      </c>
+      <c r="E5" s="77">
+        <v>0</v>
+      </c>
+      <c r="F5" s="77">
+        <v>282000000</v>
+      </c>
+      <c r="G5" s="77">
+        <v>36756054.920000002</v>
+      </c>
+      <c r="H5" s="77">
+        <v>244620708.87</v>
+      </c>
+      <c r="I5" s="77">
+        <v>0</v>
+      </c>
+      <c r="J5" s="78">
+        <v>281376763.79000002</v>
+      </c>
+      <c r="K5" s="78">
+        <f t="shared" si="0"/>
+        <v>367.56</v>
+      </c>
+      <c r="L5" s="79">
+        <f t="shared" si="1"/>
+        <v>2813.77</v>
+      </c>
+      <c r="M5" s="79">
+        <f t="shared" si="2"/>
+        <v>2813.77</v>
+      </c>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77">
+        <v>4111307</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="77">
+        <v>12320000</v>
+      </c>
+      <c r="D6" s="77">
+        <v>75680000</v>
+      </c>
+      <c r="E6" s="77">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77">
+        <v>88000000</v>
+      </c>
+      <c r="G6" s="77">
+        <v>11162270.970000001</v>
+      </c>
+      <c r="H6" s="77">
+        <v>76546996.469999999</v>
+      </c>
+      <c r="I6" s="77">
+        <v>0</v>
+      </c>
+      <c r="J6" s="78">
+        <v>87709267.439999998</v>
+      </c>
+      <c r="K6" s="78">
+        <f t="shared" si="0"/>
+        <v>111.62</v>
+      </c>
+      <c r="L6" s="79">
+        <f t="shared" si="1"/>
+        <v>877.09</v>
+      </c>
+      <c r="M6" s="79">
+        <f t="shared" si="2"/>
+        <v>877.09</v>
+      </c>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>4111201</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="77">
+        <v>1960000</v>
+      </c>
+      <c r="D7" s="77">
+        <v>12040000</v>
+      </c>
+      <c r="E7" s="77">
+        <v>0</v>
+      </c>
+      <c r="F7" s="77">
+        <v>14000000</v>
+      </c>
+      <c r="G7" s="77">
+        <v>1691782.28</v>
+      </c>
+      <c r="H7" s="77">
+        <v>11321927.529999999</v>
+      </c>
+      <c r="I7" s="77">
+        <v>0</v>
+      </c>
+      <c r="J7" s="78">
+        <v>13013709.810000001</v>
+      </c>
+      <c r="K7" s="78">
+        <f t="shared" si="0"/>
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L7" s="79">
+        <f t="shared" si="1"/>
+        <v>130.13999999999999</v>
+      </c>
+      <c r="M7" s="79">
+        <f t="shared" si="2"/>
+        <v>130.13999999999999</v>
+      </c>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="77"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>4111201</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="77">
+        <v>140000</v>
+      </c>
+      <c r="D8" s="77">
+        <v>860000</v>
+      </c>
+      <c r="E8" s="77">
+        <v>0</v>
+      </c>
+      <c r="F8" s="77">
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="77">
+        <v>14000</v>
+      </c>
+      <c r="H8" s="77">
+        <v>86000</v>
+      </c>
+      <c r="I8" s="77">
+        <v>0</v>
+      </c>
+      <c r="J8" s="78">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="78">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L8" s="79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="80"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>4111201</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="77">
+        <v>980000</v>
+      </c>
+      <c r="D9" s="77">
+        <v>6020000</v>
+      </c>
+      <c r="E9" s="77">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77">
+        <v>7000000</v>
+      </c>
+      <c r="G9" s="77">
+        <v>794298.79</v>
+      </c>
+      <c r="H9" s="77">
+        <v>5323384</v>
+      </c>
+      <c r="I9" s="77">
+        <v>0</v>
+      </c>
+      <c r="J9" s="78">
+        <v>6117682.79</v>
+      </c>
+      <c r="K9" s="78">
+        <f t="shared" si="0"/>
+        <v>7.94</v>
+      </c>
+      <c r="L9" s="79">
+        <f t="shared" si="1"/>
+        <v>61.18</v>
+      </c>
+      <c r="M9" s="79">
+        <f t="shared" si="2"/>
+        <v>61.18</v>
+      </c>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77">
+        <v>4111201</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="77">
+        <v>50960000</v>
+      </c>
+      <c r="D10" s="77">
+        <v>313040000</v>
+      </c>
+      <c r="E10" s="77">
+        <v>0</v>
+      </c>
+      <c r="F10" s="77">
+        <v>364000000</v>
+      </c>
+      <c r="G10" s="77">
+        <v>47668733.670000002</v>
+      </c>
+      <c r="H10" s="77">
+        <v>315699237.32999998</v>
+      </c>
+      <c r="I10" s="77">
+        <v>0</v>
+      </c>
+      <c r="J10" s="78">
+        <v>363367971</v>
+      </c>
+      <c r="K10" s="78">
+        <f t="shared" si="0"/>
+        <v>476.69</v>
+      </c>
+      <c r="L10" s="79">
+        <f t="shared" si="1"/>
+        <v>3633.68</v>
+      </c>
+      <c r="M10" s="79">
+        <f t="shared" si="2"/>
+        <v>3633.68</v>
+      </c>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77">
+        <v>4111201</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="77">
+        <v>0</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0</v>
+      </c>
+      <c r="E11" s="77">
+        <v>0</v>
+      </c>
+      <c r="F11" s="77">
+        <v>0</v>
+      </c>
+      <c r="G11" s="77">
+        <v>0</v>
+      </c>
+      <c r="H11" s="77">
+        <v>0</v>
+      </c>
+      <c r="I11" s="77">
+        <v>0</v>
+      </c>
+      <c r="J11" s="78">
+        <v>0</v>
+      </c>
+      <c r="K11" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77">
+        <v>4111201</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="77">
+        <v>0</v>
+      </c>
+      <c r="D12" s="77">
+        <v>0</v>
+      </c>
+      <c r="E12" s="77">
+        <v>0</v>
+      </c>
+      <c r="F12" s="77">
+        <v>0</v>
+      </c>
+      <c r="G12" s="77">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <v>0</v>
+      </c>
+      <c r="I12" s="77">
+        <v>0</v>
+      </c>
+      <c r="J12" s="78">
+        <v>0</v>
+      </c>
+      <c r="K12" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L13" s="73">
+        <f>SUM(L3:L12)</f>
+        <v>7523.9</v>
+      </c>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>